--- a/datas/datas.xlsx
+++ b/datas/datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>mean</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>n3</t>
-  </si>
-  <si>
-    <t>n4</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -541,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1003</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,21 +582,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1">
-        <v>0.1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.1003</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
